--- a/data/en/nao_domestico.xlsx
+++ b/data/en/nao_domestico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizaguaen\data\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F22696-B6C4-4389-B5CF-E3C00BF66768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFFB684-ED89-4102-BFA8-675ADF60DC69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93538EA4-E098-436A-A61B-D8B7F458585D}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="19812" windowHeight="11520" xr2:uid="{93538EA4-E098-436A-A61B-D8B7F458585D}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -436,21 +436,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0364D6-FCEE-491D-9101-669379D9B4B1}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="17.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2013</v>
       </c>
@@ -526,7 +526,7 @@
         <v>26300000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2014</v>
       </c>
@@ -564,7 +564,7 @@
         <v>25900000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2015</v>
       </c>
@@ -602,7 +602,7 @@
         <v>26200000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2016</v>
       </c>
@@ -640,7 +640,7 @@
         <v>24035989.974999998</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2017</v>
       </c>
@@ -678,7 +678,7 @@
         <v>24301586.939999998</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2018</v>
       </c>
@@ -716,7 +716,45 @@
         <v>23077956.189999994</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8">
+        <v>4085307</v>
+      </c>
+      <c r="C8">
+        <v>5525060</v>
+      </c>
+      <c r="D8">
+        <v>1696734</v>
+      </c>
+      <c r="E8">
+        <v>2410460</v>
+      </c>
+      <c r="F8">
+        <v>974785</v>
+      </c>
+      <c r="G8">
+        <v>975464</v>
+      </c>
+      <c r="H8">
+        <v>1939540</v>
+      </c>
+      <c r="I8">
+        <v>1226649</v>
+      </c>
+      <c r="J8">
+        <v>1215287</v>
+      </c>
+      <c r="K8">
+        <v>3428345</v>
+      </c>
+      <c r="L8">
+        <v>23477631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
     </row>
   </sheetData>
